--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/correct_predictions_42.xlsx
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,72 +746,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,22 +896,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,22 +986,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,42 +1016,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,31 +1337,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/correct_predictions_42.xlsx
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,72 +746,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,22 +896,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,22 +986,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,42 +1016,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,31 +1337,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
